--- a/海翠翡琳项目进度表（计划）.xlsx
+++ b/海翠翡琳项目进度表（计划）.xlsx
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
@@ -114,29 +114,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +150,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -193,30 +193,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +225,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -307,6 +307,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,7 +349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,151 +385,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,26 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -730,6 +710,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,137 +750,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,9 +959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,9 +988,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,12 +1366,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CW21"/>
+  <dimension ref="A1:CW25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="BL1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BR26" sqref="BR26"/>
+      <selection pane="topRight" activeCell="BP25" sqref="BP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1942,10 +1936,10 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="22">
         <v>6</v>
       </c>
@@ -1961,10 +1955,10 @@
       <c r="P6" s="22">
         <v>10</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="33"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="22">
         <v>11</v>
       </c>
@@ -1980,10 +1974,10 @@
       <c r="W6" s="22">
         <v>15</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="33"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="22">
         <v>16</v>
       </c>
@@ -1999,10 +1993,10 @@
       <c r="AD6" s="22">
         <v>20</v>
       </c>
-      <c r="AE6" s="33" t="s">
+      <c r="AE6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AF6" s="33"/>
+      <c r="AF6" s="32"/>
       <c r="AG6" s="22">
         <v>21</v>
       </c>
@@ -2018,10 +2012,10 @@
       <c r="AK6" s="22">
         <v>25</v>
       </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AL6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AM6" s="33"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="22">
         <v>26</v>
       </c>
@@ -2037,10 +2031,10 @@
       <c r="AR6" s="22">
         <v>30</v>
       </c>
-      <c r="AS6" s="33" t="s">
+      <c r="AS6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AT6" s="33"/>
+      <c r="AT6" s="32"/>
       <c r="AU6" s="22">
         <v>31</v>
       </c>
@@ -2056,10 +2050,10 @@
       <c r="AY6" s="22">
         <v>35</v>
       </c>
-      <c r="AZ6" s="33" t="s">
+      <c r="AZ6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BA6" s="33"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="22">
         <v>36</v>
       </c>
@@ -2075,10 +2069,10 @@
       <c r="BF6" s="22">
         <v>39</v>
       </c>
-      <c r="BG6" s="33" t="s">
+      <c r="BG6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BH6" s="33"/>
+      <c r="BH6" s="32"/>
       <c r="BI6" s="2">
         <v>40</v>
       </c>
@@ -2094,10 +2088,10 @@
       <c r="BM6" s="2">
         <v>44</v>
       </c>
-      <c r="BN6" s="33" t="s">
+      <c r="BN6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BO6" s="33"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="2">
         <v>44</v>
       </c>
@@ -2118,249 +2112,249 @@
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>42667</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>42668</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>42669</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>42670</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <v>42671</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <v>42672</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <v>42673</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>42674</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="34">
         <v>42675</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="34">
         <v>42676</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="34">
         <v>42677</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="34">
         <v>42678</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="37">
         <v>42679</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="37">
         <v>42680</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="34">
         <v>42681</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <v>42682</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <v>42683</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="34">
         <v>42684</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <v>42685</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="37">
         <v>42686</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="37">
         <v>42687</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="34">
         <v>42688</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AA7" s="34">
         <v>42689</v>
       </c>
-      <c r="AB7" s="35">
+      <c r="AB7" s="34">
         <v>42690</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="34">
         <v>42691</v>
       </c>
-      <c r="AD7" s="35">
+      <c r="AD7" s="34">
         <v>42692</v>
       </c>
-      <c r="AE7" s="39">
+      <c r="AE7" s="37">
         <v>42693</v>
       </c>
-      <c r="AF7" s="39">
+      <c r="AF7" s="37">
         <v>42694</v>
       </c>
-      <c r="AG7" s="35">
+      <c r="AG7" s="34">
         <v>42695</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AH7" s="34">
         <v>42696</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AI7" s="34">
         <v>42697</v>
       </c>
-      <c r="AJ7" s="35">
+      <c r="AJ7" s="34">
         <v>42698</v>
       </c>
-      <c r="AK7" s="35">
+      <c r="AK7" s="34">
         <v>42699</v>
       </c>
-      <c r="AL7" s="39">
+      <c r="AL7" s="37">
         <v>42700</v>
       </c>
-      <c r="AM7" s="39">
+      <c r="AM7" s="37">
         <v>42701</v>
       </c>
-      <c r="AN7" s="35">
+      <c r="AN7" s="34">
         <v>42702</v>
       </c>
-      <c r="AO7" s="35">
+      <c r="AO7" s="34">
         <v>42703</v>
       </c>
-      <c r="AP7" s="35">
+      <c r="AP7" s="34">
         <v>42704</v>
       </c>
-      <c r="AQ7" s="35">
+      <c r="AQ7" s="34">
         <v>42705</v>
       </c>
-      <c r="AR7" s="35">
+      <c r="AR7" s="34">
         <v>42706</v>
       </c>
-      <c r="AS7" s="39">
+      <c r="AS7" s="37">
         <v>42707</v>
       </c>
-      <c r="AT7" s="39">
+      <c r="AT7" s="37">
         <v>42708</v>
       </c>
-      <c r="AU7" s="35">
+      <c r="AU7" s="34">
         <v>42709</v>
       </c>
-      <c r="AV7" s="35">
+      <c r="AV7" s="34">
         <v>42710</v>
       </c>
-      <c r="AW7" s="35">
+      <c r="AW7" s="34">
         <v>42711</v>
       </c>
-      <c r="AX7" s="35">
+      <c r="AX7" s="34">
         <v>42712</v>
       </c>
-      <c r="AY7" s="35">
+      <c r="AY7" s="34">
         <v>42713</v>
       </c>
-      <c r="AZ7" s="39">
+      <c r="AZ7" s="37">
         <v>42714</v>
       </c>
-      <c r="BA7" s="39">
+      <c r="BA7" s="37">
         <v>42715</v>
       </c>
-      <c r="BB7" s="35">
+      <c r="BB7" s="34">
         <v>42716</v>
       </c>
-      <c r="BC7" s="35">
+      <c r="BC7" s="34">
         <v>42717</v>
       </c>
-      <c r="BD7" s="35">
+      <c r="BD7" s="34">
         <v>42718</v>
       </c>
-      <c r="BE7" s="35">
+      <c r="BE7" s="34">
         <v>42719</v>
       </c>
-      <c r="BF7" s="35">
+      <c r="BF7" s="34">
         <v>42720</v>
       </c>
-      <c r="BG7" s="39">
+      <c r="BG7" s="37">
         <v>42721</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="33">
         <v>42722</v>
       </c>
-      <c r="BI7" s="28">
+      <c r="BI7" s="27">
         <v>42723</v>
       </c>
-      <c r="BJ7" s="28">
+      <c r="BJ7" s="27">
         <v>42724</v>
       </c>
-      <c r="BK7" s="28">
+      <c r="BK7" s="27">
         <v>42725</v>
       </c>
-      <c r="BL7" s="28">
+      <c r="BL7" s="27">
         <v>42726</v>
       </c>
-      <c r="BM7" s="28">
+      <c r="BM7" s="27">
         <v>42727</v>
       </c>
-      <c r="BN7" s="34">
+      <c r="BN7" s="33">
         <v>42728</v>
       </c>
-      <c r="BO7" s="34">
+      <c r="BO7" s="33">
         <v>42729</v>
       </c>
-      <c r="BP7" s="28">
+      <c r="BP7" s="27">
         <v>42730</v>
       </c>
-      <c r="BQ7" s="28">
+      <c r="BQ7" s="27">
         <v>42731</v>
       </c>
-      <c r="BR7" s="28">
+      <c r="BR7" s="27">
         <v>42732</v>
       </c>
-      <c r="BS7" s="28">
+      <c r="BS7" s="27">
         <v>42733</v>
       </c>
-      <c r="BT7" s="28">
+      <c r="BT7" s="27">
         <v>42734</v>
       </c>
-      <c r="BU7" s="28"/>
-      <c r="BV7" s="28"/>
-      <c r="BW7" s="28"/>
+      <c r="BU7" s="27"/>
+      <c r="BV7" s="27"/>
+      <c r="BW7" s="27"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:67">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>7</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>1</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>2</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>3</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>4</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <v>5</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="16">
         <v>6</v>
       </c>
@@ -2370,66 +2364,66 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="36"/>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="35"/>
+      <c r="BN8" s="35"/>
+      <c r="BO8" s="35"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:67">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>1</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="17">
         <v>1</v>
       </c>
@@ -2437,66 +2431,66 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
-      <c r="AZ9" s="40"/>
-      <c r="BA9" s="40"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="36"/>
-      <c r="BN9" s="36"/>
-      <c r="BO9" s="36"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="35"/>
+      <c r="BN9" s="35"/>
+      <c r="BO9" s="35"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:67">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>5</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="7"/>
       <c r="M10" s="15">
         <v>1</v>
@@ -2510,8 +2504,8 @@
       <c r="P10" s="15">
         <v>4</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="15">
         <v>5</v>
       </c>
@@ -2519,45 +2513,45 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
-      <c r="AZ10" s="40"/>
-      <c r="BA10" s="40"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="40"/>
-      <c r="BH10" s="36"/>
-      <c r="BN10" s="36"/>
-      <c r="BO10" s="36"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="35"/>
+      <c r="BN10" s="35"/>
+      <c r="BO10" s="35"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:67">
       <c r="A11" s="7">
@@ -2570,15 +2564,15 @@
       <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="7"/>
       <c r="T11" s="16">
         <v>0.2</v>
@@ -2586,278 +2580,278 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
-      <c r="AS11" s="40"/>
-      <c r="AT11" s="40"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="40"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40"/>
-      <c r="BN11" s="36"/>
-      <c r="BO11" s="36"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BN11" s="35"/>
+      <c r="BO11" s="35"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:67">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>1</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="7"/>
       <c r="M12" s="16">
         <v>1</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="40"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="36"/>
-      <c r="BN12" s="36"/>
-      <c r="BO12" s="36"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="35"/>
+      <c r="BN12" s="35"/>
+      <c r="BO12" s="35"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:67">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>0.1</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="7"/>
       <c r="M13" s="16">
         <v>0.1</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="36"/>
-      <c r="BN13" s="36"/>
-      <c r="BO13" s="36"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:67">
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="37"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
       <c r="U14" s="14">
         <v>1</v>
       </c>
       <c r="V14" s="14">
         <v>2</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="40"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
       <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
-      <c r="BG14" s="40"/>
-      <c r="BH14" s="36"/>
-      <c r="BN14" s="36"/>
-      <c r="BO14" s="36"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:67">
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
       <c r="W15" s="14">
         <v>1</v>
       </c>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
       <c r="Z15" s="14">
         <v>2</v>
       </c>
@@ -2873,8 +2867,8 @@
       <c r="AD15" s="14">
         <v>6</v>
       </c>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
       <c r="AG15" s="14">
         <v>7</v>
       </c>
@@ -2887,110 +2881,110 @@
       <c r="AJ15" s="14">
         <v>10</v>
       </c>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
-      <c r="BG15" s="40"/>
-      <c r="BH15" s="36"/>
-      <c r="BN15" s="36"/>
-      <c r="BO15" s="36"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BO15" s="35"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:67">
       <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>16</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="42">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="40">
         <v>1</v>
       </c>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="42">
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="40">
         <v>2</v>
       </c>
-      <c r="AO16" s="42">
+      <c r="AO16" s="40">
         <v>3</v>
       </c>
-      <c r="AP16" s="42">
+      <c r="AP16" s="40">
         <v>4</v>
       </c>
-      <c r="AQ16" s="42">
+      <c r="AQ16" s="40">
         <v>5</v>
       </c>
-      <c r="AR16" s="42">
+      <c r="AR16" s="40">
         <v>6</v>
       </c>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="42">
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="40">
         <v>7</v>
       </c>
-      <c r="AV16" s="42">
+      <c r="AV16" s="40">
         <v>8</v>
       </c>
-      <c r="AW16" s="42">
+      <c r="AW16" s="40">
         <v>9</v>
       </c>
-      <c r="AX16" s="42">
+      <c r="AX16" s="40">
         <v>10</v>
       </c>
-      <c r="AY16" s="42">
+      <c r="AY16" s="40">
         <v>11</v>
       </c>
-      <c r="AZ16" s="40"/>
-      <c r="BA16" s="40"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
       <c r="BB16" s="14">
         <v>12</v>
       </c>
@@ -3006,165 +3000,170 @@
       <c r="BF16" s="14">
         <v>16</v>
       </c>
-      <c r="BG16" s="40"/>
-      <c r="BH16" s="36"/>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="36"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="35"/>
+      <c r="BN16" s="35"/>
+      <c r="BO16" s="35"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:67">
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="37"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
       <c r="BE17" s="7"/>
       <c r="BF17" s="7"/>
-      <c r="BG17" s="40"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="32">
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="31">
         <v>1</v>
       </c>
-      <c r="BJ17" s="32">
+      <c r="BJ17" s="31">
         <v>2</v>
       </c>
-      <c r="BK17" s="32">
+      <c r="BK17" s="31">
         <v>3</v>
       </c>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:72">
       <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="40"/>
-      <c r="BA18" s="40"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BG18" s="40"/>
-      <c r="BH18" s="36"/>
-      <c r="BJ18" s="38"/>
-      <c r="BL18" s="32">
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="35"/>
+      <c r="BJ18" s="36"/>
+      <c r="BL18" s="31">
         <v>1</v>
       </c>
-      <c r="BM18" s="32">
+      <c r="BM18" s="31">
         <v>2</v>
       </c>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="32">
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="31">
         <v>3</v>
       </c>
-      <c r="BQ18" s="44" t="s">
+      <c r="BQ18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="BR18" s="45"/>
-      <c r="BS18" s="45"/>
-      <c r="BT18" s="46"/>
+      <c r="BR18" s="43"/>
+      <c r="BS18" s="43"/>
+      <c r="BT18" s="44"/>
     </row>
     <row r="19" spans="54:56">
-      <c r="BB19" s="43"/>
-      <c r="BC19" s="43"/>
-      <c r="BD19" s="43"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="41"/>
+    </row>
+    <row r="25" spans="68:68">
+      <c r="BP25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/海翠翡琳项目进度表（计划）.xlsx
+++ b/海翠翡琳项目进度表（计划）.xlsx
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
@@ -114,6 +114,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,29 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -193,6 +193,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,30 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -307,12 +307,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,169 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +687,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -710,26 +730,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,137 +750,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,6 +959,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +991,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1366,12 +1372,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CW25"/>
+  <dimension ref="A1:CW21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="BL1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BP25" sqref="BP25"/>
+      <selection pane="topRight" activeCell="BR26" sqref="BR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1936,10 +1942,10 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="22">
         <v>6</v>
       </c>
@@ -1955,10 +1961,10 @@
       <c r="P6" s="22">
         <v>10</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="32"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="22">
         <v>11</v>
       </c>
@@ -1974,10 +1980,10 @@
       <c r="W6" s="22">
         <v>15</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="32"/>
+      <c r="Y6" s="33"/>
       <c r="Z6" s="22">
         <v>16</v>
       </c>
@@ -1993,10 +1999,10 @@
       <c r="AD6" s="22">
         <v>20</v>
       </c>
-      <c r="AE6" s="32" t="s">
+      <c r="AE6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AF6" s="32"/>
+      <c r="AF6" s="33"/>
       <c r="AG6" s="22">
         <v>21</v>
       </c>
@@ -2012,10 +2018,10 @@
       <c r="AK6" s="22">
         <v>25</v>
       </c>
-      <c r="AL6" s="32" t="s">
+      <c r="AL6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AM6" s="32"/>
+      <c r="AM6" s="33"/>
       <c r="AN6" s="22">
         <v>26</v>
       </c>
@@ -2031,10 +2037,10 @@
       <c r="AR6" s="22">
         <v>30</v>
       </c>
-      <c r="AS6" s="32" t="s">
+      <c r="AS6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AT6" s="32"/>
+      <c r="AT6" s="33"/>
       <c r="AU6" s="22">
         <v>31</v>
       </c>
@@ -2050,10 +2056,10 @@
       <c r="AY6" s="22">
         <v>35</v>
       </c>
-      <c r="AZ6" s="32" t="s">
+      <c r="AZ6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BA6" s="32"/>
+      <c r="BA6" s="33"/>
       <c r="BB6" s="22">
         <v>36</v>
       </c>
@@ -2069,10 +2075,10 @@
       <c r="BF6" s="22">
         <v>39</v>
       </c>
-      <c r="BG6" s="32" t="s">
+      <c r="BG6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BH6" s="32"/>
+      <c r="BH6" s="33"/>
       <c r="BI6" s="2">
         <v>40</v>
       </c>
@@ -2088,10 +2094,10 @@
       <c r="BM6" s="2">
         <v>44</v>
       </c>
-      <c r="BN6" s="32" t="s">
+      <c r="BN6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BO6" s="32"/>
+      <c r="BO6" s="33"/>
       <c r="BP6" s="2">
         <v>44</v>
       </c>
@@ -2112,249 +2118,249 @@
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="28">
         <v>42667</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <v>42668</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="28">
         <v>42669</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <v>42670</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="28">
         <v>42671</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="34">
         <v>42672</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <v>42673</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="35">
         <v>42674</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="35">
         <v>42675</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="35">
         <v>42676</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="35">
         <v>42677</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="35">
         <v>42678</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="39">
         <v>42679</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="39">
         <v>42680</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="35">
         <v>42681</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="35">
         <v>42682</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="35">
         <v>42683</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="35">
         <v>42684</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="35">
         <v>42685</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="39">
         <v>42686</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="39">
         <v>42687</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="35">
         <v>42688</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="35">
         <v>42689</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="35">
         <v>42690</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="35">
         <v>42691</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="35">
         <v>42692</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="39">
         <v>42693</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AF7" s="39">
         <v>42694</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="35">
         <v>42695</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="35">
         <v>42696</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="35">
         <v>42697</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="35">
         <v>42698</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="35">
         <v>42699</v>
       </c>
-      <c r="AL7" s="37">
+      <c r="AL7" s="39">
         <v>42700</v>
       </c>
-      <c r="AM7" s="37">
+      <c r="AM7" s="39">
         <v>42701</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="35">
         <v>42702</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="35">
         <v>42703</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="35">
         <v>42704</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="35">
         <v>42705</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="35">
         <v>42706</v>
       </c>
-      <c r="AS7" s="37">
+      <c r="AS7" s="39">
         <v>42707</v>
       </c>
-      <c r="AT7" s="37">
+      <c r="AT7" s="39">
         <v>42708</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="35">
         <v>42709</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="35">
         <v>42710</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="35">
         <v>42711</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="35">
         <v>42712</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="35">
         <v>42713</v>
       </c>
-      <c r="AZ7" s="37">
+      <c r="AZ7" s="39">
         <v>42714</v>
       </c>
-      <c r="BA7" s="37">
+      <c r="BA7" s="39">
         <v>42715</v>
       </c>
-      <c r="BB7" s="34">
+      <c r="BB7" s="35">
         <v>42716</v>
       </c>
-      <c r="BC7" s="34">
+      <c r="BC7" s="35">
         <v>42717</v>
       </c>
-      <c r="BD7" s="34">
+      <c r="BD7" s="35">
         <v>42718</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="35">
         <v>42719</v>
       </c>
-      <c r="BF7" s="34">
+      <c r="BF7" s="35">
         <v>42720</v>
       </c>
-      <c r="BG7" s="37">
+      <c r="BG7" s="39">
         <v>42721</v>
       </c>
-      <c r="BH7" s="33">
+      <c r="BH7" s="34">
         <v>42722</v>
       </c>
-      <c r="BI7" s="27">
+      <c r="BI7" s="28">
         <v>42723</v>
       </c>
-      <c r="BJ7" s="27">
+      <c r="BJ7" s="28">
         <v>42724</v>
       </c>
-      <c r="BK7" s="27">
+      <c r="BK7" s="28">
         <v>42725</v>
       </c>
-      <c r="BL7" s="27">
+      <c r="BL7" s="28">
         <v>42726</v>
       </c>
-      <c r="BM7" s="27">
+      <c r="BM7" s="28">
         <v>42727</v>
       </c>
-      <c r="BN7" s="33">
+      <c r="BN7" s="34">
         <v>42728</v>
       </c>
-      <c r="BO7" s="33">
+      <c r="BO7" s="34">
         <v>42729</v>
       </c>
-      <c r="BP7" s="27">
+      <c r="BP7" s="28">
         <v>42730</v>
       </c>
-      <c r="BQ7" s="27">
+      <c r="BQ7" s="28">
         <v>42731</v>
       </c>
-      <c r="BR7" s="27">
+      <c r="BR7" s="28">
         <v>42732</v>
       </c>
-      <c r="BS7" s="27">
+      <c r="BS7" s="28">
         <v>42733</v>
       </c>
-      <c r="BT7" s="27">
+      <c r="BT7" s="28">
         <v>42734</v>
       </c>
-      <c r="BU7" s="27"/>
-      <c r="BV7" s="27"/>
-      <c r="BW7" s="27"/>
+      <c r="BU7" s="28"/>
+      <c r="BV7" s="28"/>
+      <c r="BW7" s="28"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:67">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="29">
         <v>7</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="31">
         <v>2</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="31">
         <v>3</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="31">
         <v>4</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="31">
         <v>5</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="16">
         <v>6</v>
       </c>
@@ -2364,66 +2370,66 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7"/>
       <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
-      <c r="BG8" s="38"/>
-      <c r="BH8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:67">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="29">
         <v>1</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="17">
         <v>1</v>
       </c>
@@ -2431,66 +2437,66 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="40"/>
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="7"/>
       <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="35"/>
-      <c r="BN9" s="35"/>
-      <c r="BO9" s="35"/>
+      <c r="BG9" s="40"/>
+      <c r="BH9" s="36"/>
+      <c r="BN9" s="36"/>
+      <c r="BO9" s="36"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:67">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="7"/>
       <c r="M10" s="15">
         <v>1</v>
@@ -2504,8 +2510,8 @@
       <c r="P10" s="15">
         <v>4</v>
       </c>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="15">
         <v>5</v>
       </c>
@@ -2513,45 +2519,45 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="38"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
-      <c r="AZ10" s="38"/>
-      <c r="BA10" s="38"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="40"/>
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="38"/>
-      <c r="BH10" s="35"/>
-      <c r="BN10" s="35"/>
-      <c r="BO10" s="35"/>
+      <c r="BG10" s="40"/>
+      <c r="BH10" s="36"/>
+      <c r="BN10" s="36"/>
+      <c r="BO10" s="36"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:67">
       <c r="A11" s="7">
@@ -2564,15 +2570,15 @@
       <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="7"/>
       <c r="T11" s="16">
         <v>0.2</v>
@@ -2580,278 +2586,278 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="40"/>
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="38"/>
-      <c r="BN11" s="35"/>
-      <c r="BO11" s="35"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BN11" s="36"/>
+      <c r="BO11" s="36"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:67">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="29">
         <v>1</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="7"/>
       <c r="M12" s="16">
         <v>1</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="35"/>
-      <c r="BN12" s="35"/>
-      <c r="BO12" s="35"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:67">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="29">
         <v>0.1</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="7"/>
       <c r="M13" s="16">
         <v>0.1</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="35"/>
-      <c r="BN13" s="35"/>
-      <c r="BO13" s="35"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="36"/>
+      <c r="BN13" s="36"/>
+      <c r="BO13" s="36"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:67">
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="29">
         <v>2</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="37"/>
       <c r="U14" s="14">
         <v>1</v>
       </c>
       <c r="V14" s="14">
         <v>2</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
       <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="35"/>
-      <c r="BN14" s="35"/>
-      <c r="BO14" s="35"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="36"/>
+      <c r="BN14" s="36"/>
+      <c r="BO14" s="36"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:67">
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="29">
         <v>10</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="14">
         <v>1</v>
       </c>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
       <c r="Z15" s="14">
         <v>2</v>
       </c>
@@ -2867,8 +2873,8 @@
       <c r="AD15" s="14">
         <v>6</v>
       </c>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
       <c r="AG15" s="14">
         <v>7</v>
       </c>
@@ -2881,110 +2887,110 @@
       <c r="AJ15" s="14">
         <v>10</v>
       </c>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
-      <c r="BG15" s="38"/>
-      <c r="BH15" s="35"/>
-      <c r="BN15" s="35"/>
-      <c r="BO15" s="35"/>
+      <c r="BG15" s="40"/>
+      <c r="BH15" s="36"/>
+      <c r="BN15" s="36"/>
+      <c r="BO15" s="36"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:67">
       <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="29">
         <v>16</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="40">
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="42">
         <v>1</v>
       </c>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="40">
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="42">
         <v>2</v>
       </c>
-      <c r="AO16" s="40">
+      <c r="AO16" s="42">
         <v>3</v>
       </c>
-      <c r="AP16" s="40">
+      <c r="AP16" s="42">
         <v>4</v>
       </c>
-      <c r="AQ16" s="40">
+      <c r="AQ16" s="42">
         <v>5</v>
       </c>
-      <c r="AR16" s="40">
+      <c r="AR16" s="42">
         <v>6</v>
       </c>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="40">
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="42">
         <v>7</v>
       </c>
-      <c r="AV16" s="40">
+      <c r="AV16" s="42">
         <v>8</v>
       </c>
-      <c r="AW16" s="40">
+      <c r="AW16" s="42">
         <v>9</v>
       </c>
-      <c r="AX16" s="40">
+      <c r="AX16" s="42">
         <v>10</v>
       </c>
-      <c r="AY16" s="40">
+      <c r="AY16" s="42">
         <v>11</v>
       </c>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="40"/>
       <c r="BB16" s="14">
         <v>12</v>
       </c>
@@ -3000,170 +3006,165 @@
       <c r="BF16" s="14">
         <v>16</v>
       </c>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
+      <c r="BG16" s="40"/>
+      <c r="BH16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="36"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:67">
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="29">
         <v>3</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="40"/>
       <c r="BE17" s="7"/>
       <c r="BF17" s="7"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="35"/>
-      <c r="BI17" s="31">
+      <c r="BG17" s="40"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="32">
         <v>1</v>
       </c>
-      <c r="BJ17" s="31">
+      <c r="BJ17" s="32">
         <v>2</v>
       </c>
-      <c r="BK17" s="31">
+      <c r="BK17" s="32">
         <v>3</v>
       </c>
-      <c r="BN17" s="35"/>
-      <c r="BO17" s="35"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:72">
       <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="29">
         <v>3</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="35"/>
-      <c r="BJ18" s="36"/>
-      <c r="BL18" s="31">
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="40"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BG18" s="40"/>
+      <c r="BH18" s="36"/>
+      <c r="BJ18" s="38"/>
+      <c r="BL18" s="32">
         <v>1</v>
       </c>
-      <c r="BM18" s="31">
+      <c r="BM18" s="32">
         <v>2</v>
       </c>
-      <c r="BN18" s="35"/>
-      <c r="BO18" s="35"/>
-      <c r="BP18" s="31">
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="32">
         <v>3</v>
       </c>
-      <c r="BQ18" s="42" t="s">
+      <c r="BQ18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BR18" s="43"/>
-      <c r="BS18" s="43"/>
-      <c r="BT18" s="44"/>
+      <c r="BR18" s="45"/>
+      <c r="BS18" s="45"/>
+      <c r="BT18" s="46"/>
     </row>
     <row r="19" spans="54:56">
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-    </row>
-    <row r="25" spans="68:68">
-      <c r="BP25">
-        <v>1</v>
-      </c>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="43"/>
+      <c r="BD19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="30">
